--- a/dbInittool/excels/MaterialPhotoRelation.xlsx
+++ b/dbInittool/excels/MaterialPhotoRelation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\Reader\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991C51F8-49A4-4368-ADD4-4A79355D127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7601ECEF-D850-469A-A102-06CEA6665ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="3380" windowWidth="16200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -382,6 +382,14 @@
         <v>555</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>456</v>
+      </c>
+      <c r="B3">
+        <v>789</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dbInittool/excels/MaterialPhotoRelation.xlsx
+++ b/dbInittool/excels/MaterialPhotoRelation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7601ECEF-D850-469A-A102-06CEA6665ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B692DA-D490-4625-B5D3-177F69B190E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -390,6 +390,14 @@
         <v>789</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
